--- a/Hoadon/HDVao/6/HDDienTuKhongMa.xlsx
+++ b/Hoadon/HDVao/6/HDDienTuKhongMa.xlsx
@@ -193,15 +193,17 @@
     <col min="6" max="6" width="31.25" customWidth="true"/>
     <col min="7" max="7" width="31.25" customWidth="true"/>
     <col min="8" max="8" width="31.25" customWidth="true"/>
-    <col min="9" max="9" width="11.71875" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="19.53125" customWidth="true"/>
-    <col min="12" max="12" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="31.25" customWidth="true"/>
+    <col min="10" max="10" width="31.25" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
     <col min="13" max="13" width="19.53125" customWidth="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true"/>
-    <col min="15" max="15" width="11.71875" customWidth="true"/>
-    <col min="16" max="16" width="19.53125" customWidth="true"/>
-    <col min="17" max="17" width="50.78125" customWidth="true"/>
+    <col min="14" max="14" width="19.53125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="11.71875" customWidth="true"/>
+    <col min="17" max="17" width="11.71875" customWidth="true"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
+    <col min="19" max="19" width="50.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -214,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 01/06/2025 đến ngày 30/06/2025</t>
+          <t>Từ ngày 16/06/2025 đến ngày 16/06/2025</t>
         </is>
       </c>
     </row>
@@ -261,45 +263,55 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
+          <t>MST người mua/MST người nhận hàng</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Tên người mua/Tên người nhận hàng</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
           <t>Tổng tiền chưa thuế</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thuế</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chiết khấu thương mại</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền phí</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thanh toán</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>Đơn vị tiền tệ</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Tỷ giá</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>Trạng thái hóa đơn</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
         </is>
@@ -316,57 +328,69 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>K25THA</t>
+          <t>K25TAB</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>731997</t>
+          <t>167128</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>0106869738-044</t>
+          <t>0301103908-045</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>TRUNG TÂM KINH DOANH VNPT BÀ RỊA - VŨNG TÀU - CHI NHÁNH TỔNG CÔNG TY DỊCH VỤ VIỄN THÔNG</t>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="13" t="n">
-        <v>1814177.0</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>181418.0</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="n">
-        <v>1995595.0</v>
-      </c>
-      <c r="N7" s="7" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>2454795.0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>2454795.0</v>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
         <is>
           <t>VND</t>
         </is>
       </c>
-      <c r="O7" s="7" t="inlineStr">
+      <c r="Q7" s="7" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="P7" s="6" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>Hóa đơn mới</t>
         </is>
       </c>
-      <c r="Q7" s="6" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>Tổng cục thuế đã nhận không mã</t>
         </is>
@@ -383,57 +407,69 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>K25TTA</t>
+          <t>K25TAB</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>683323</t>
+          <t>167135</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>0300942001-026</t>
+          <t>0301103908-045</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY ĐIỆN LỰC BÀ RỊA - VŨNG TÀU</t>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="13" t="n">
-        <v>9054903.0</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>724392.0</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="n">
-        <v>9779295.0</v>
-      </c>
-      <c r="N8" s="7" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>652920.0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>652920.0</v>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
         <is>
           <t>VND</t>
         </is>
       </c>
-      <c r="O8" s="7" t="inlineStr">
+      <c r="Q8" s="7" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>Hóa đơn mới</t>
         </is>
       </c>
-      <c r="Q8" s="6" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>Tổng cục thuế đã nhận không mã</t>
         </is>
@@ -450,59 +486,1017 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>K25TAA</t>
+          <t>K25TAB</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>1034004</t>
+          <t>167148</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>3500101386</t>
+          <t>0301103908-045</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN CẤP NƯỚC BÀ RỊA - VŨNG TÀU</t>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="13" t="n">
-        <v>763020.0</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <v>43357.0</v>
-      </c>
-      <c r="K9" s="13"/>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>2399722.0</v>
+      </c>
       <c r="L9" s="13" t="n">
         <v>0.0</v>
       </c>
-      <c r="M9" s="13" t="n">
-        <v>806377.0</v>
-      </c>
-      <c r="N9" s="7" t="inlineStr">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>2399722.0</v>
+      </c>
+      <c r="P9" s="7" t="inlineStr">
         <is>
           <t>VND</t>
         </is>
       </c>
-      <c r="O9" s="7" t="inlineStr">
+      <c r="Q9" s="7" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="P9" s="6" t="inlineStr">
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>Hóa đơn mới</t>
         </is>
       </c>
-      <c r="Q9" s="6" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>167180</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>2636758.0</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>2636758.0</v>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>167232</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>2599032.0</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>2599032.0</v>
+      </c>
+      <c r="P11" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>167256</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>1094114.0</v>
+      </c>
+      <c r="L12" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="13" t="n">
+        <v>1094114.0</v>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>167274</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>1964373.0</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>1964373.0</v>
+      </c>
+      <c r="P13" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q13" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S13" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>167279</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>458349.0</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="13" t="n">
+        <v>458349.0</v>
+      </c>
+      <c r="P14" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q14" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>167313</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>982305.0</v>
+      </c>
+      <c r="L15" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>982305.0</v>
+      </c>
+      <c r="P15" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>167317</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K16" s="13" t="n">
+        <v>1146151.0</v>
+      </c>
+      <c r="L16" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <v>1146151.0</v>
+      </c>
+      <c r="P16" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q16" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>167324</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K17" s="13" t="n">
+        <v>1.0143113E7</v>
+      </c>
+      <c r="L17" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <v>1.0143113E7</v>
+      </c>
+      <c r="P17" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q17" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>167342</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K18" s="13" t="n">
+        <v>165084.0</v>
+      </c>
+      <c r="L18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="13" t="n">
+        <v>165084.0</v>
+      </c>
+      <c r="P18" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q18" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>167363</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K19" s="13" t="n">
+        <v>575798.0</v>
+      </c>
+      <c r="L19" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="13" t="n">
+        <v>575798.0</v>
+      </c>
+      <c r="P19" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q19" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>167377</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K20" s="13" t="n">
+        <v>126224.0</v>
+      </c>
+      <c r="L20" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="13" t="n">
+        <v>126224.0</v>
+      </c>
+      <c r="P20" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q20" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>Tổng cục thuế đã nhận không mã</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>K25TAB</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>167387</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>0301103908-045</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>Ngân hàng TMCP Sài Gòn Thương Tín - Chi nhánh Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>3501972322</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>CTY TNHH TM DV PCCC MINH HOANG</t>
+        </is>
+      </c>
+      <c r="K21" s="13" t="n">
+        <v>4487671.0</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="13" t="n">
+        <v>4487671.0</v>
+      </c>
+      <c r="P21" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q21" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
         <is>
           <t>Tổng cục thuế đã nhận không mã</t>
         </is>
@@ -510,8 +1504,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
